--- a/biology/Médecine/Syndrome_du_vomissement_cyclique/Syndrome_du_vomissement_cyclique.xlsx
+++ b/biology/Médecine/Syndrome_du_vomissement_cyclique/Syndrome_du_vomissement_cyclique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome du vomissement cyclique est un rejet par la bouche de la famille des vomissements.  Contrairement aux régurgitations ainsi que le vomissement, il est différentiable dans sa récurrence précise dans le temps, dite cyclique.  Le cycle peut s'étendre sur des intervalles de quelques semaines à quelques mois.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phase prodromique
-Cette phase consiste en des nausées et des douleurs abdominales suivies d'anxiété et de troubles de l'humeur pour finalement résulter en une peau plus pâle que la normale venant avec des nausées[1].
-Phase émétique
-La partie émétique ou la période de vomissement du cycle débute durant la nuit (entre 2 heures et 4 heures AM) ou en matinée (entre 6 heures et 8 heures AM). Le premier vomissement est suivi en moyenne de 6 à 10 autres dans l'heure suivante. Ces vomissements se manifestent majoritairement par l'expulsion de la nourriture présente dans le système digestif suivie de bile et même de sang dans certains rares cas[1].
-Phase de récupération
-Courte phase commençant après le dernier épisode de vomissement. Cette phase est caractérisée par une récupération de l'appétit ainsi que de la possible reprise d'activités physiques à plus grande intensité suivie d'un retour à la vie régulière[1].
-Phase intercritique
-Cette phase est associée à la période séparant les épisodes du syndrome des vomissements cycliques. Elle est généralement associée à la vie régulière du patient ainsi qu'au retour complet de l'appétit.
+          <t>Phase prodromique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette phase consiste en des nausées et des douleurs abdominales suivies d'anxiété et de troubles de l'humeur pour finalement résulter en une peau plus pâle que la normale venant avec des nausées.
 </t>
         </is>
       </c>
@@ -546,33 +557,251 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Syndromes et phases</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Phase émétique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La partie émétique ou la période de vomissement du cycle débute durant la nuit (entre 2 heures et 4 heures AM) ou en matinée (entre 6 heures et 8 heures AM). Le premier vomissement est suivi en moyenne de 6 à 10 autres dans l'heure suivante. Ces vomissements se manifestent majoritairement par l'expulsion de la nourriture présente dans le système digestif suivie de bile et même de sang dans certains rares cas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Syndromes et phases</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phase de récupération</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Courte phase commençant après le dernier épisode de vomissement. Cette phase est caractérisée par une récupération de l'appétit ainsi que de la possible reprise d'activités physiques à plus grande intensité suivie d'un retour à la vie régulière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Syndromes et phases</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phase intercritique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette phase est associée à la période séparant les épisodes du syndrome des vomissements cycliques. Elle est généralement associée à la vie régulière du patient ainsi qu'au retour complet de l'appétit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Consommation de substances
-Consommation chronique de cannabis[2]
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Consommation de substances</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Consommation chronique de cannabis
 Le syndrome du SHC (Syndrome d’hyperémèse cannabinoïde) peut entrainer des complications si le patient est atteint du syndrome des vomissements cycliques. La consommation régulière de cette substance entraine des vomissements fréquents ainsi qu'une perte de poids constante due aux effets apportés sur l'estomac et le cerveau.
 Consommation d'alcool.
-Surpassement lors d'une activité physique[1].
-Alimentation
-Différents aliments peuvent être associés comme facteurs déclencheurs tels que :
+Surpassement lors d'une activité physique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Différents aliments peuvent être associés comme facteurs déclencheurs tels que :
 Le chocolat
 Le mais soufflé
 Les produits laitiers
 Les épices
-Les épices possèdent une répercussion sur le système digestif en apportant plus de sucs gastriques dans l'estomac pouvant aboutir à une irritation de l'estomac ou toute plaie encore ouverte[3].
-Les repas hyperprotidiques[4]
+Les épices possèdent une répercussion sur le système digestif en apportant plus de sucs gastriques dans l'estomac pouvant aboutir à une irritation de l'estomac ou toute plaie encore ouverte.
+Les repas hyperprotidiques
 Ce type de repas fait partie de la famille des régimes hyperprotidiques composés d'un pourcentage plus élevé que la normale de protides. Ils sont généralement utilisés dans des régimes amaigrissants où la consommation de lipides et de glucides est peu élevée.
 Les aliments gras
-Les aliments acides
-Stress positif
-anniversaire
+Les aliments acides</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Stress positif</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>anniversaire
 excursions
-festivités
-Stress négatif
-efforts physiques intenses
+festivités</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Stress négatif</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>efforts physiques intenses
 stress familial
 insomnies
 anxiété/stress
@@ -581,35 +810,37 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Syndrome_du_vomissement_cyclique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_du_vomissement_cyclique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plusieurs recherches fournissent des traitements pour contrer la maladie, dont les services de l'hôpital Sainte-Justine à Montréal[1].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Plusieurs recherches fournissent des traitements pour contrer la maladie, dont les services de l'hôpital Sainte-Justine à Montréal.
 phase prodromique
-Ondansétron OTD en dose de 0,3 à 0,4 mg par kg en intervalle de 4 à 6 heures combinées avec un ativan tel que le Lorazépamen[5] dose de 0,05 à 1 mg par kg sur des intervalles de 6 heures
+Ondansétron OTD en dose de 0,3 à 0,4 mg par kg en intervalle de 4 à 6 heures combinées avec un ativan tel que le Lorazépamen dose de 0,05 à 1 mg par kg sur des intervalles de 6 heures
 S'il y a échec avec les deux médicaments précédents, du Sumatriptan est prescrit en dose de 20 à 25 mg par intranasale ou 3 à 6 mg sous-cutané.
 Phase émétique
 une éviction de toute stimulation telle que la lumière, le bruit ainsi que les écrans bleus est recommandée. Au besoin, en plus d'un ordansétron en dose de 0.3 à 0.4 mg par kg, s'il y a un cas de déshydratation, une visite à l'hôpital sera demandée.
@@ -626,65 +857,75 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Syndrome_du_vomissement_cyclique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_du_vomissement_cyclique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Conséquences et risques pour la santé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hospitalisation
-Déshydratation
-Dans la majorité des cas, la présence de vomissements en grande quantité diminue la quantité d'électrolyte ainsi que la quantité d'eau présente dans le corps. Sans une hospitalisation rapide, la déshydratation pourrait être suivie par la mort.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Hospitalisation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Déshydratation</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la majorité des cas, la présence de vomissements en grande quantité diminue la quantité d'électrolyte ainsi que la quantité d'eau présente dans le corps. Sans une hospitalisation rapide, la déshydratation pourrait être suivie par la mort.
 Pour contrer les risques, il est recommandé de consommer une grande quantité d'eau potable lors des vomissements et des boissons désaltérantes pour rétablir l'équilibre dans le corps.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Syndrome_du_vomissement_cyclique</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_du_vomissement_cyclique</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_du_vomissement_cyclique</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Autre type de maladie confondue avec le syndrome du vomissement cyclique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
